--- a/NEW HR/MARASIGAN, BIENVENIDO JR..xlsx
+++ b/NEW HR/MARASIGAN, BIENVENIDO JR..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649E942-DBD9-44F5-9A10-BC097DD0D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7C29B-E6E7-4A48-BC2C-22EA397F5077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -843,7 +843,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1191,8 +1191,8 @@
   </sheetPr>
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1351,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1361,7 +1361,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1839,15 +1839,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="24">
+        <v>44986</v>
+      </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="12"/>
       <c r="E32" s="9"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="9"/>
@@ -1855,15 +1859,19 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="24">
+        <v>45017</v>
+      </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="12"/>
       <c r="E33" s="9"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="9"/>
@@ -1871,15 +1879,19 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="24">
+        <v>45047</v>
+      </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="12"/>
       <c r="E34" s="9"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="9"/>
@@ -1887,7 +1899,9 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="24">
+        <v>45078</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
       <c r="D35" s="12"/>
@@ -1903,7 +1917,9 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="24">
+        <v>45108</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
@@ -1919,7 +1935,9 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="24">
+        <v>45139</v>
+      </c>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
       <c r="D37" s="12"/>
@@ -1935,7 +1953,9 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="24">
+        <v>45170</v>
+      </c>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
@@ -1951,7 +1971,9 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="24">
+        <v>45200</v>
+      </c>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
       <c r="D39" s="12"/>
@@ -1967,7 +1989,9 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="24">
+        <v>45231</v>
+      </c>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
       <c r="D40" s="12"/>
@@ -1983,7 +2007,9 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="24">
+        <v>45261</v>
+      </c>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
       <c r="D41" s="12"/>
@@ -1999,7 +2025,9 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="24">
+        <v>45292</v>
+      </c>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -2015,7 +2043,9 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="24">
+        <v>45323</v>
+      </c>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -2031,7 +2061,9 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="24">
+        <v>45352</v>
+      </c>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
       <c r="D44" s="12"/>
@@ -2459,7 +2491,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
